--- a/data/trans_dic/P5_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de terraza en su vivienda</t>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>40,96%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,52; 45,69</t>
+          <t>37,56; 45,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,35; 46,52</t>
+          <t>38,29; 47,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,58; 42,46</t>
+          <t>35,22; 42,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,42; 44,21</t>
+          <t>36,1; 43,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,35; 42,79</t>
+          <t>37,38; 43,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,2; 44,01</t>
+          <t>37,66; 43,75</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>39,81%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,26; 49,17</t>
+          <t>40,23; 49,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,25; 49,75</t>
+          <t>38,32; 48,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 38,51</t>
+          <t>30,53; 38,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,19; 40,83</t>
+          <t>32,06; 40,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,69; 42,68</t>
+          <t>36,4; 42,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,41; 43,97</t>
+          <t>36,54; 43,14</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>38,4%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 48,39</t>
+          <t>30,1; 48,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,85; 48,45</t>
+          <t>31,54; 52,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 44,8</t>
+          <t>30,39; 44,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,38; 40,6</t>
+          <t>26,95; 43,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,58; 43,58</t>
+          <t>32,34; 43,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,01; 42,08</t>
+          <t>32,51; 45,15</t>
         </is>
       </c>
     </row>
@@ -841,12 +842,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,21%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 45,37</t>
+          <t>39,72; 45,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,32; 46,0</t>
+          <t>39,42; 45,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,53; 39,28</t>
+          <t>34,48; 39,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 40,43</t>
+          <t>35,23; 40,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,92; 42,06</t>
+          <t>37,92; 41,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,12; 42,49</t>
+          <t>38,33; 42,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>684855</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>696750</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>694587</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>721167</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1379442</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1417916</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>615928; 753222</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>632732; 777811</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>630721; 756281</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>653181; 793216</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1282411; 1477731</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1303658; 1514735</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>619759</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>597414</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>486050</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>503579</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1105809</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1100992</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>557820; 692102</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>526547; 670637</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>430474; 543268</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>446159; 565262</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1017945; 1190536</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1010414; 1193019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>163329</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>175609</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>154397</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>144927</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>317726</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>320537</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>127264; 203719</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>133362; 220379</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>125195; 184980</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110993; 178844</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>269947; 366170</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>271344; 376906</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1169.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1467943</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1469773</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1335034</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1369673</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2802977</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2839445</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1370096; 1580308</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1359769; 1583807</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1245536; 1431502</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1272611; 1472065</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2677739; 2952016</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2706987; 2994154</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>